--- a/trunk/综合排名.xlsx
+++ b/trunk/综合排名.xlsx
@@ -192,85 +192,86 @@
     <t>The University of Montana - Missoula</t>
   </si>
   <si>
+    <t>The University of Texas Health Science Center at San Antonio</t>
+  </si>
+  <si>
+    <t>The University of Texas Medical Branch at Galveston</t>
+  </si>
+  <si>
+    <t>Tulane University</t>
+  </si>
+  <si>
+    <t>University of Alaska - Fairbanks</t>
+  </si>
+  <si>
+    <t>University of Nebraska Medical Center</t>
+  </si>
+  <si>
+    <t>University of New Hampshire - Durham</t>
+  </si>
+  <si>
+    <t>University of Oklahoma - Norman</t>
+  </si>
+  <si>
+    <t>University of Rhode Island</t>
+  </si>
+  <si>
+    <t>University of Vermont</t>
+  </si>
+  <si>
+    <t>Wake Forest University</t>
+  </si>
+  <si>
+    <t>Wayne State University</t>
+  </si>
+  <si>
+    <t>138-150</t>
+  </si>
+  <si>
+    <t>Auburn University</t>
+  </si>
+  <si>
+    <t>401-500</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>Kent State University</t>
+  </si>
+  <si>
+    <t>Lehigh University</t>
+  </si>
+  <si>
+    <t>Medical College of Wisconsin</t>
+  </si>
+  <si>
+    <t>Montana State University - Bozeman</t>
+  </si>
+  <si>
+    <t>Southern Methodist University</t>
+  </si>
+  <si>
+    <t>Texas Tech University</t>
+  </si>
+  <si>
+    <t>The University of Texas at San Antonio</t>
+  </si>
+  <si>
+    <t>University of Arkansas at Fayetteville</t>
+  </si>
+  <si>
+    <t>University of Louisville</t>
+  </si>
+  <si>
+    <t>University of Wyoming</t>
+  </si>
+  <si>
+    <t>Utah State University</t>
+  </si>
+  <si>
     <t>The University of Texas at Dallas</t>
-  </si>
-  <si>
-    <t>The University of Texas Health Science Center at San Antonio</t>
-  </si>
-  <si>
-    <t>The University of Texas Medical Branch at Galveston</t>
-  </si>
-  <si>
-    <t>Tulane University</t>
-  </si>
-  <si>
-    <t>University of Alaska - Fairbanks</t>
-  </si>
-  <si>
-    <t>University of Nebraska Medical Center</t>
-  </si>
-  <si>
-    <t>University of New Hampshire - Durham</t>
-  </si>
-  <si>
-    <t>University of Oklahoma - Norman</t>
-  </si>
-  <si>
-    <t>University of Rhode Island</t>
-  </si>
-  <si>
-    <t>University of Vermont</t>
-  </si>
-  <si>
-    <t>Wake Forest University</t>
-  </si>
-  <si>
-    <t>Wayne State University</t>
-  </si>
-  <si>
-    <t>138-150</t>
-  </si>
-  <si>
-    <t>Auburn University</t>
-  </si>
-  <si>
-    <t>401-500</t>
-  </si>
-  <si>
-    <t>Boston College</t>
-  </si>
-  <si>
-    <t>Kent State University</t>
-  </si>
-  <si>
-    <t>Lehigh University</t>
-  </si>
-  <si>
-    <t>Medical College of Wisconsin</t>
-  </si>
-  <si>
-    <t>Montana State University - Bozeman</t>
-  </si>
-  <si>
-    <t>Southern Methodist University</t>
-  </si>
-  <si>
-    <t>Texas Tech University</t>
-  </si>
-  <si>
-    <t>The University of Texas at San Antonio</t>
-  </si>
-  <si>
-    <t>University of Arkansas at Fayetteville</t>
-  </si>
-  <si>
-    <t>University of Louisville</t>
-  </si>
-  <si>
-    <t>University of Wyoming</t>
-  </si>
-  <si>
-    <t>Utah State University</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -763,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1483,7 +1484,7 @@
         <v>40</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>42</v>
@@ -1494,7 +1495,7 @@
         <v>40</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>42</v>
@@ -1505,7 +1506,7 @@
         <v>40</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>42</v>
@@ -1516,7 +1517,7 @@
         <v>40</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>42</v>
@@ -1527,7 +1528,7 @@
         <v>40</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>42</v>
@@ -1538,7 +1539,7 @@
         <v>40</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>42</v>
@@ -1549,7 +1550,7 @@
         <v>40</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>42</v>
@@ -1560,7 +1561,7 @@
         <v>40</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>42</v>
@@ -1571,7 +1572,7 @@
         <v>40</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>42</v>
@@ -1582,7 +1583,7 @@
         <v>40</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>42</v>
@@ -1593,7 +1594,7 @@
         <v>40</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>42</v>
@@ -1604,7 +1605,7 @@
         <v>40</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>42</v>
@@ -1612,145 +1613,145 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
